--- a/example_file/NASICON-data - 副本.xlsx
+++ b/example_file/NASICON-data - 副本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学文件\大四\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programing\PythonWorkspace\mlplat\example_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD82E5DD-DD31-42F5-A476-3832427EF003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B496AAE0-3100-4F27-BE13-7C73C0F50014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F09263D2-C923-4721-BBF7-1C911C8E9DEA}"/>
   </bookViews>
@@ -278,10 +278,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -381,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +483,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1025,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17EE217-9B54-47F1-A232-0AFC71F22659}">
   <dimension ref="A1:AT85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD85"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1355,7 +1359,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="34">
         <v>1</v>
       </c>
       <c r="B3" s="17">
@@ -1496,7 +1500,7 @@
     </row>
     <row r="4" spans="1:46" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>0.78</v>
+        <v>1.5</v>
       </c>
       <c r="B4" s="17">
         <v>0.40699999999999997</v>
@@ -1636,7 +1640,7 @@
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="B5" s="17">
         <v>8.6999999999999994E-2</v>
